--- a/moodle/tablas_interes.xlsx
+++ b/moodle/tablas_interes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Tabla</t>
   </si>
@@ -87,6 +87,320 @@
         <scheme val="minor"/>
       </rPr>
       <t>mdl_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Almacena cada uno de los cursos existentes dentro de la plataforma.</t>
+  </si>
+  <si>
+    <t>Almacena los distintos tipos de roles que pueden tener los usuarios en la plataforma (profesor, estudiante, etc).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_course_categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Almacena las distintas categorias seleccionables a las que pueden pertenecer los cursos.</t>
+  </si>
+  <si>
+    <t>Almacena todos los usuarios que sean creados en la plataforma.</t>
+  </si>
+  <si>
+    <t>Cada una de las filas apunta a un usuario, rol  y contexto en el cual se ubica este usuario, señalando su rol dentro de este mismo contexto (curso).</t>
+  </si>
+  <si>
+    <t>Cada fila establece una conexión con un curso y señala un path asignado a dicho curso.</t>
+  </si>
+  <si>
+    <t>mdl_enrol</t>
+  </si>
+  <si>
+    <t>mdl_user_enrolments</t>
+  </si>
+  <si>
+    <t>Cada fila es una conexión a un curso. Esta conexión más adelante es utilizada para señalar a los usuarios que están matriculados en dicho curso.</t>
+  </si>
+  <si>
+    <t>Se almacenan cada uno de los usuarios matriculados en los distintos cursos.</t>
+  </si>
+  <si>
+    <t>mdl_course_modules</t>
+  </si>
+  <si>
+    <t>mdl_modules</t>
+  </si>
+  <si>
+    <t>mdl_course_sections</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cada fila representa un tipo de archivo u "objeto" que puede existir en los topicos de los cursos (archivo, link, chat, foro, carpeta, etc).</t>
+  </si>
+  <si>
+    <t>Almacena cada uno de los topicos que tiene cada curso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id en su tabla correspontiente de modulos. Por ejemplo si la fila representa una carpeta, intance es el id en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, si es una evaluacion, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> será el id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_quiz</t>
     </r>
     <r>
       <rPr>
@@ -186,14 +500,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mld_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>Almacena cada uno de los cursos existentes dentro de la plataforma.</t>
-  </si>
-  <si>
-    <t>Almacena los distintos tipos de roles que pueden tener los usuarios en la plataforma (profesor, estudiante, etc).</t>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courseid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdl_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -208,64 +606,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el id de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mdl_course_categories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Almacena las distintas categorias seleccionables a las que pueden pertenecer los cursos.</t>
-  </si>
-  <si>
-    <t>Almacena todos los usuarios que sean creados en la plataforma.</t>
-  </si>
-  <si>
-    <t>Cada una de las filas apunta a un usuario, rol  y contexto en el cual se ubica este usuario, señalando su rol dentro de este mismo contexto (curso).</t>
-  </si>
-  <si>
-    <t>Cada fila establece una conexión con un curso y señala un path asignado a dicho curso.</t>
-  </si>
-  <si>
-    <t>mdl_enrol</t>
-  </si>
-  <si>
-    <t>mdl_user_enrolments</t>
-  </si>
-  <si>
-    <t>Cada una de las filas señala la forma de asignacion o matricula que se efectuo con un usuario (manual, invitado, etc).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aquí se encuentran todos los usuarios que están distintos cursos y la forma en que fueron matriculados a traves de la conexión con la tabla </t>
+      <t>enrolid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el id en la tabla </t>
     </r>
     <r>
       <rPr>
@@ -286,23 +637,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enrolid</t>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userid</t>
     </r>
     <r>
       <rPr>
@@ -323,7 +670,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mdl_enrol</t>
+      <t>mdl_user</t>
     </r>
     <r>
       <rPr>
@@ -720,7 +1067,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -755,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -775,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -784,57 +1131,73 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -863,6 +1226,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>